--- a/va_facility_data_2025-02-20/Monroe County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monroe%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Monroe County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monroe%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf00a124a98fa4dfabadd5e05224ce236"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra07b2e60b078406896ba366ea9b19adc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R28fad82eb1cd429e9866e0983d572bc3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R54d147aa088840248cec4f55e9024f73"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc3fd49ee2fee4278860fb4270adb687e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R347bcc77fec943f38b55fb2f9d22eb69"/>
   </x:sheets>
 </x:workbook>
 </file>
